--- a/retoNueve.xlsx
+++ b/retoNueve.xlsx
@@ -12,9 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="1">
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>Banco De La República - Colombia</t>
+  </si>
+  <si>
+    <t>www.banrep.gov.co</t>
+  </si>
+  <si>
+    <t>Banco W</t>
+  </si>
+  <si>
+    <t>www.bancow.com.co</t>
+  </si>
+  <si>
+    <t>Tropical De Cambios Agencia</t>
+  </si>
+  <si>
+    <t>www.tropicaldecambios.com</t>
+  </si>
+  <si>
+    <t>Bancolombia S.A.</t>
+  </si>
+  <si>
+    <t>www.grupobancolombia.com</t>
+  </si>
+  <si>
+    <t>Leasing Bancolombia</t>
+  </si>
+  <si>
+    <t>Cfa Cooperativa Financiera</t>
+  </si>
+  <si>
+    <t>www.cfa.com.co</t>
+  </si>
+  <si>
+    <t>Prestabien</t>
+  </si>
+  <si>
+    <t>www.prestabien.com</t>
+  </si>
+  <si>
+    <t>Bancamía S.A.</t>
+  </si>
+  <si>
+    <t>http://www.bancamia.com</t>
+  </si>
+  <si>
+    <t>Bbva Seguros Colombia S.A.</t>
+  </si>
+  <si>
+    <t>http://www.bbvaseguros.com.co</t>
+  </si>
+  <si>
+    <t>Banco Abnamrobank</t>
+  </si>
+  <si>
+    <t>http://www.scotiabank.com</t>
   </si>
 </sst>
 </file>
@@ -59,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,48 +123,101 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="E15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
